--- a/reports-api/src/sandbox/24557.xlsx
+++ b/reports-api/src/sandbox/24557.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB72F1-1DAC-483A-8818-A1723111594A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05050F82-850C-45F9-9F67-C3348A4B83E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,12 @@
     <definedName name="NV_IAO_не_удалять_это_очень_нужный_отчет">#REF!</definedName>
     <definedName name="май">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
-  <si>
-    <t>cbegin:ym4</t>
-  </si>
-  <si>
-    <t>cbegin:ym3</t>
-  </si>
-  <si>
-    <t>cbegin:ym2</t>
-  </si>
-  <si>
-    <t>cbegin:ym1</t>
-  </si>
-  <si>
-    <t>begin:a0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>№ п/п</t>
   </si>
@@ -62,27 +47,6 @@
     <t>[ym4.title] года</t>
   </si>
   <si>
-    <t xml:space="preserve">Просроченная задолженность 
-за [:a0.god3] год, в т.ч. </t>
-  </si>
-  <si>
-    <t>[ym3.title] года</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просроченная задолженность 
-за [:a0.god2] год, в т.ч. </t>
-  </si>
-  <si>
-    <t>[ym2.title] года</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просроченная задолженность 
-за [:a0.god1] год, в т.ч. </t>
-  </si>
-  <si>
-    <t>[ym1.title]  года</t>
-  </si>
-  <si>
     <t>Итого по Обществу</t>
   </si>
   <si>
@@ -98,24 +62,6 @@
     <t>[:a0.dolg_by_ym4[ym4.pfx]]</t>
   </si>
   <si>
-    <t>[:a0.dolg3]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg2]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg1]</t>
-  </si>
-  <si>
-    <t>[:a0.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
     <t>Итого по [:a.name_dep]</t>
   </si>
   <si>
@@ -131,27 +77,6 @@
     <t>[:a.dolg_by_ym4[ym4.pfx]]</t>
   </si>
   <si>
-    <t>[:a.dolg3]</t>
-  </si>
-  <si>
-    <t>[:a.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:a.dolg2]</t>
-  </si>
-  <si>
-    <t>[:a.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:a.dolg1]</t>
-  </si>
-  <si>
-    <t>[:a.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
-    <t>a0.begin:a</t>
-  </si>
-  <si>
     <t>Итого  [:c.name_pr] по  [:a.name_dep]</t>
   </si>
   <si>
@@ -167,27 +92,6 @@
     <t>[:c.dolg_by_ym4[ym4.pfx]]</t>
   </si>
   <si>
-    <t>[:c.dolg3]</t>
-  </si>
-  <si>
-    <t>[:c.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:c.dolg2]</t>
-  </si>
-  <si>
-    <t>[:c.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:c.dolg1]</t>
-  </si>
-  <si>
-    <t>[:c.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
-    <t>a.begin:c</t>
-  </si>
-  <si>
     <t>Итого [:c.name_pr] по [:b.name_uch] , в т.ч.</t>
   </si>
   <si>
@@ -203,27 +107,6 @@
     <t>[:b.dolg_by_ym4[ym4.pfx]]</t>
   </si>
   <si>
-    <t>[:b.dolg3]</t>
-  </si>
-  <si>
-    <t>[:b.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:b.dolg2]</t>
-  </si>
-  <si>
-    <t>[:b.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:b.dolg1]</t>
-  </si>
-  <si>
-    <t>[:b.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
-    <t>c.begin:b</t>
-  </si>
-  <si>
     <t>[:c1.name_gr]</t>
   </si>
   <si>
@@ -239,27 +122,6 @@
     <t>[:c1.dolg_by_ym4[ym4.pfx]]</t>
   </si>
   <si>
-    <t>[:c1.dolg3]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg2]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg1]</t>
-  </si>
-  <si>
-    <t>[:c1.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
-    <t>b.begin:c1</t>
-  </si>
-  <si>
     <t>[:all_dog.payer_name]</t>
   </si>
   <si>
@@ -273,61 +135,13 @@
   </si>
   <si>
     <t>[:all_dog.dolg_by_ym4[ym4.pfx]]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg3]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg_by_ym3[ym3.pfx]]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg2]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg_by_ym2[ym2.pfx]]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg1]</t>
-  </si>
-  <si>
-    <t>[:all_dog.dolg_by_ym1[ym1.pfx]]</t>
-  </si>
-  <si>
-    <t>end:a;</t>
-  </si>
-  <si>
-    <t>end:c;</t>
-  </si>
-  <si>
-    <t>end:b;</t>
-  </si>
-  <si>
-    <t>end:c1;</t>
-  </si>
-  <si>
-    <t>c1.begin:all_dog end:all_dog;</t>
-  </si>
-  <si>
-    <t>end:a0;</t>
-  </si>
-  <si>
-    <t>cend:ym4;</t>
-  </si>
-  <si>
-    <t>cend:ym3;</t>
-  </si>
-  <si>
-    <t>cend:ym2;</t>
-  </si>
-  <si>
-    <t>cend:ym1;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -496,37 +310,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
@@ -538,28 +327,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +511,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -927,33 +713,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,42 +737,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1321,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,409 +1107,198 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B9" si="0">A4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>27</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="C5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13" t="s">
-        <v>51</v>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="4"/>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A6+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="21" t="s">
-        <v>75</v>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="22" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="T9" s="29" t="s">
-        <v>91</v>
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C10" s="30"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="17"/>
     </row>
-    <row r="14" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="O14" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="31">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/reports-api/src/sandbox/24557.xlsx
+++ b/reports-api/src/sandbox/24557.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mygithub\ie-asuse-web\reports-api\src\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05050F82-850C-45F9-9F67-C3348A4B83E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548106A1-3892-411A-B66F-092E8139323C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +523,24 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -713,7 +731,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -768,6 +786,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,7 +1120,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1159,7 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1158,7 +1183,7 @@
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1183,7 +1208,7 @@
       <c r="E5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -1208,7 +1233,7 @@
       <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="24" t="s">
@@ -1233,7 +1258,7 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1258,7 +1283,7 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1283,7 +1308,7 @@
       <c r="E9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -1300,6 +1325,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>